--- a/01-Trimestre 1/3. Historias de usuario/Historias de usuario modulo servicios.xlsx
+++ b/01-Trimestre 1/3. Historias de usuario/Historias de usuario modulo servicios.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="172">
   <si>
     <t xml:space="preserve">Identificador (ID) de la Historia </t>
   </si>
@@ -46,34 +46,10 @@
     <t xml:space="preserve">Resultado / Comportamiento esperado </t>
   </si>
   <si>
-    <t>HU-SV-001 (Referente al CU-001)</t>
-  </si>
-  <si>
-    <t>Como Administrador/ Jefe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito registrar a un cliente </t>
-  </si>
-  <si>
-    <t>Con el fin de agregar al listado de clientes</t>
-  </si>
-  <si>
-    <t>Registro de cliente</t>
-  </si>
-  <si>
-    <t>En caso de que se necesite registrar un nuevo cliente en el sistema</t>
-  </si>
-  <si>
-    <t>Desplegar un nuevo menú con el cual registrar al cliente.</t>
-  </si>
-  <si>
-    <t>El sistema mostrará un ventana donde se pondran unos datos básicos para registrar al cliente.</t>
-  </si>
-  <si>
-    <t>HU-SV-002 (Referente al CU-002 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como Administrador/Jefe </t>
+    <t>HU-SV-001 (Referente al CU-001 )</t>
+  </si>
+  <si>
+    <t>Como Administrador</t>
   </si>
   <si>
     <r>
@@ -106,10 +82,10 @@
     <t>Cuando se despliegue el listado de clientes</t>
   </si>
   <si>
-    <t>El sistema mostrará un listado con todos los clientes y su estado</t>
-  </si>
-  <si>
-    <t>HU-SV-002 (Referente al CU-003-CU-004)</t>
+    <t xml:space="preserve">El sistema mostrará un listado con todos los clientes </t>
+  </si>
+  <si>
+    <t>HU-SV-002 (Referente al CU-002-CU-003)</t>
   </si>
   <si>
     <r>
@@ -142,7 +118,7 @@
     <t>Cuando se despliegue el listado de clientes a seleccionar</t>
   </si>
   <si>
-    <t>El sistema mostrará un ventana donde se registrará la novedad a editar</t>
+    <t>El sistema mostrará un ventana donde se registrará el campo a editar</t>
   </si>
   <si>
     <t xml:space="preserve">Cambiar estado de cliente </t>
@@ -157,16 +133,7 @@
     <t xml:space="preserve">El sistema mostrará un ventana donde se muestran las opciones a elegir sobre el estado del cliente; "activo" "inactivo" </t>
   </si>
   <si>
-    <t>Ordenamiento de los clientes para facilitar su búsqueda</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema mostrará un listado de los clientes por orden alfabético. </t>
-  </si>
-  <si>
-    <t>HU-SV-003 (Referente al CU-005)</t>
+    <t>HU-SV-003 (Referente al CU-004)</t>
   </si>
   <si>
     <t>Necesito crear una orden de trabajo</t>
@@ -181,79 +148,298 @@
     <t>En caso de que un cliente ingrese a dejar un servicio</t>
   </si>
   <si>
-    <t>cuando se abre una ventana donde se ingresan los datos del recibo.</t>
-  </si>
-  <si>
-    <t>El sistema mostrara  una ventana donde se ingresa, numero de telefono de cliente, el tipo de servicio, numero de prendas, demás observaciones y se imprime en formato factura.</t>
-  </si>
-  <si>
-    <t>HU-SV-004 (Referente al CU-006 - CU-008)</t>
-  </si>
-  <si>
-    <t>Necesito editar los datos de una orden de trabajo</t>
+    <t>cuando se abre una ventana donde se ingresan los datos.</t>
+  </si>
+  <si>
+    <t>El sistema mostrara  una ventana donde se ingresa, nombre del cliente,numero de celular,fecha entrada,listado de productos, el tipo de servicio,metodo de pago.</t>
+  </si>
+  <si>
+    <t>HU-SV-004 (Referente al CU-005)</t>
+  </si>
+  <si>
+    <t>Necesito listar una orden de trabajo</t>
+  </si>
+  <si>
+    <t>Con el fin de dar seguimiento a las ordenes de trabajo</t>
+  </si>
+  <si>
+    <t>Listar las ordenes de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso de que se requiera Listar alguna orden de trabajo para verificar los datos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando se va al apartado Ordenes de trabajo se podran Listar (visualizar) las ordenes </t>
+  </si>
+  <si>
+    <t>El sistema mostrara un apartado donde esta ospetada la seccion ordenes de trabajo.</t>
+  </si>
+  <si>
+    <t>HU-SV-005(Referente al CU-006)</t>
+  </si>
+  <si>
+    <t>Necesito modificar los datos de una orden de trabajo</t>
   </si>
   <si>
     <t>con el fin de modificar distintos parámetros de la orden de trabajo</t>
   </si>
   <si>
-    <t xml:space="preserve">editar los recibos de servicios </t>
+    <t xml:space="preserve">Modificar una orden de trabajo </t>
   </si>
   <si>
     <t>En caso de que se requiera modificar los datos del servicio</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando se despliegue una ventana para modificar el recibo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema abrirá una ventana donde se permita editar los datos de un recibo previamente creado </t>
-  </si>
-  <si>
-    <t>reimprimir recibo de servicio</t>
-  </si>
-  <si>
-    <t>En caso de necesitar otra copia de recibo</t>
-  </si>
-  <si>
-    <t>Cuando se despliegue una ventana y se digite el número del recibo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario da clic en reimprimir recibo, y se despliega una ventana con el mensaje "Número del recibo" se digita y se reimprime </t>
-  </si>
-  <si>
-    <t>Listar los servicios agendados del día</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para observar un listado del dia </t>
-  </si>
-  <si>
-    <t>Cuando muestra una lista de todos los servicios del dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema despliega una lista donde se muestran los servicios agendados en el dia </t>
-  </si>
-  <si>
-    <t>HU-SV-005 (Referente al CU-009)</t>
-  </si>
-  <si>
-    <t>Necesito consultar servicios agendados</t>
-  </si>
-  <si>
-    <t>Con el fin de tener un seguimiento con respecto al ingreso de las prendas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar los servicios agendados hasta la fecha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En caso de necesitar un control de las prendas ingresadas </t>
-  </si>
-  <si>
-    <t>Cuando muestra una lista de todos los servicios agendados hasta la fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema mostrara  una lista donde el administrador podrá observar todos los servicios que han entrado al negocio y poder llevar un mejor control contable </t>
-  </si>
-  <si>
-    <t>HU-SV-006 (Referente al CU-010)</t>
+    <t>Cuando se despliegue una ventana para modificar el servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema abrirá una ventana donde se permita editar los datos de una orden de trabajo previamente creado </t>
+  </si>
+  <si>
+    <t>Sacar los reportes</t>
+  </si>
+  <si>
+    <t>En caso de necesitar un reporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando se va al apartado Ordenes de trabajo se podra selecionar las ordenes que se quieran descargar </t>
+  </si>
+  <si>
+    <t>El usuario da clic a cualquier orden de trabajo y en el filtro que se tiene podemos ver la seccion "Descargar PDF" y oprimimos el boton "Ir" para que se descargue</t>
+  </si>
+  <si>
+    <t>HU-SV-006 (Referente al CU-007)</t>
+  </si>
+  <si>
+    <t>Necesito eliminar servicios agendados</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente no necesite los servicios que pidio</t>
+  </si>
+  <si>
+    <t>Eliminar orden de trabajo</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente quiera cancelar el servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando muestra una lista de todos los servicios </t>
+  </si>
+  <si>
+    <t>El sistema mostrara  una lista donde el administrador podrá observar todas las ordenes de trabajo y seleccionar la que quiera eliminar</t>
+  </si>
+  <si>
+    <t>HU-SV-007 (Referente al CU-008)</t>
+  </si>
+  <si>
+    <t>Como Administrador/ Jefe</t>
+  </si>
+  <si>
+    <t>Necesito crear tipo de servicio</t>
+  </si>
+  <si>
+    <t>Con el fin de darle un tipo de servicio al cliente</t>
+  </si>
+  <si>
+    <t>Creacion tipo de servicio</t>
+  </si>
+  <si>
+    <t>En caso de que un cliente ingrese un servicio</t>
+  </si>
+  <si>
+    <t>Cuando se abre una ventana donde se pondran los tipos de servicios</t>
+  </si>
+  <si>
+    <t>El sistema mostrara un listado cuando se cree la orden de trabajo el cual traera todos los tipos de servicios que se hacen dentro de la empresa</t>
+  </si>
+  <si>
+    <t>HU-SV-008 (Referente al CU-009)</t>
+  </si>
+  <si>
+    <t>como Administrador/ Cliente</t>
+  </si>
+  <si>
+    <t>Necesito listar tipo de servicio</t>
+  </si>
+  <si>
+    <t>Con el fin de poder listar los tipos de servicio que se tienen almacenados</t>
+  </si>
+  <si>
+    <t>Listar tipo servicio</t>
+  </si>
+  <si>
+    <t>En asi de que se necesitan visualizar los tipos de servicios que se tiene almacenados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando se abre una ventana se podran visualizar los tipos de servicio </t>
+  </si>
+  <si>
+    <t>El sistema mostrara un apartado donde se encuentra el tipo de servicio, dandole clic se visualizaran los tipos de servicio que se tienen ingresados</t>
+  </si>
+  <si>
+    <t>HU-SV-008 (Referente al CU-010,CU-011)</t>
+  </si>
+  <si>
+    <t>como Administrador</t>
+  </si>
+  <si>
+    <t>Necesito modificar tipo de servicio</t>
+  </si>
+  <si>
+    <t>Con el fin de modificar uno o mas parametros de tipo de servicio</t>
+  </si>
+  <si>
+    <t>Modificar tipo servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso de que se requiera modificar algun tipo de servicio </t>
+  </si>
+  <si>
+    <t>Cuando se despliega el formulario para modificar algun campo</t>
+  </si>
+  <si>
+    <t>El sistema mostrar una ventana donde se despliega el formulario y en este se modificara algun campo que lo requiera</t>
+  </si>
+  <si>
+    <t>Necesito eliminar tipo de servicio</t>
+  </si>
+  <si>
+    <t>En caso de que no se haga mas ese tipo de servicio</t>
+  </si>
+  <si>
+    <t>Eliminar tipo servicio</t>
+  </si>
+  <si>
+    <t>En casi de que no se requieran o no se sigan generando esos servicios</t>
+  </si>
+  <si>
+    <t>Cuando se despliega el formulario se podra eliminar el tipo de servicio</t>
+  </si>
+  <si>
+    <t>El sistema mostrara la ventana de modificar en la cual tambien tiene un boton que dice "Eliminar" dandole clic se eliminara ese tipo de servicio</t>
+  </si>
+  <si>
+    <t>HU-SV-009(Referente al CU-012)</t>
+  </si>
+  <si>
+    <t>Necesito crear un ingreso</t>
+  </si>
+  <si>
+    <t>Con el fin de dar registro a los ingresos (Metodo de pago) que entre a la empresa</t>
+  </si>
+  <si>
+    <t>Creación de ingresos</t>
+  </si>
+  <si>
+    <t>En caso de que un cliente ingrese un producto y tenga metodo de pago</t>
+  </si>
+  <si>
+    <t>Cuando se va al apartado ingresos</t>
+  </si>
+  <si>
+    <t>El sistema mostrara un listado cuando se agrege una orden de trabajo la cual es el metodo de pago</t>
+  </si>
+  <si>
+    <t>HU-SV-010 (Referente al CU-013,CU-014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necesito listar un ingreso </t>
+  </si>
+  <si>
+    <t>Con el fin de poder visualizar los metodos de pago</t>
+  </si>
+  <si>
+    <t>Listar ingresos</t>
+  </si>
+  <si>
+    <t>En caso de que se quiera Listar los metodos de pago que se tienen almacenados</t>
+  </si>
+  <si>
+    <t>Cuando se va al apartado ingresos se podra listar los ingresos</t>
+  </si>
+  <si>
+    <t>El sistema mostrara un apartado donde esta la seccion servicios dentro de esta se encuentran los ingresos y dandole clic se podran visualizar los ingresos(metodos de pago)</t>
+  </si>
+  <si>
+    <t>Necesito modificar un ingreso</t>
+  </si>
+  <si>
+    <t>Con el fin de modificar un metodo de pago en la orden de trabajo</t>
+  </si>
+  <si>
+    <t>Modificar ingresos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso de que el ingreso requiera un cambio,ya sea cambiar el metodo de pago que se va a recibir en la empresa </t>
+  </si>
+  <si>
+    <t>Cuando se va al apartado ingresos se podra modificar un ingreso</t>
+  </si>
+  <si>
+    <t>El sistema abrira una ventana donde se podran modificar los diferentes tipos de ingresos</t>
+  </si>
+  <si>
+    <t>HU-SV-011 (Referente al CU-015)</t>
+  </si>
+  <si>
+    <t>Necesito crear listado de productos</t>
+  </si>
+  <si>
+    <t>Con el fin de dar registro a listado de productos que entren a la empresa</t>
+  </si>
+  <si>
+    <t>Creacion de listado de productos</t>
+  </si>
+  <si>
+    <t>En caso de que el cliente ingrese un producto se necesita clasificar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando se va al apartado listado de productos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema mostrara un listado en la orden de trabajo donde se clasifican los tipos de productos que entran </t>
+  </si>
+  <si>
+    <t>HU-SV-012 (Referente al CU-016,CU-017)</t>
+  </si>
+  <si>
+    <t>Necesito listar un listado de producto</t>
+  </si>
+  <si>
+    <t>Con el fin de poder listar los listados de productos que se tienen ingresados en el sistema</t>
+  </si>
+  <si>
+    <t>Listar un producto</t>
+  </si>
+  <si>
+    <t>En caso de que se requieran visualizar el listado de productos</t>
+  </si>
+  <si>
+    <t>Cuando se va al apartado listado de producto se listaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema mostrara un apartado donde se visualizaran los listados de productos que se tienen ingresados en el sistema </t>
+  </si>
+  <si>
+    <t>Necesito modificar un listado de producto</t>
+  </si>
+  <si>
+    <t>Con el fin de modificar un listado de producto en la orden de trabajo</t>
+  </si>
+  <si>
+    <t>Modificar un producto</t>
+  </si>
+  <si>
+    <t>En caso de que se requiera modificar algun listado de producto</t>
+  </si>
+  <si>
+    <t>Cuando se va al apartado listado de productos se modificara uno de estos</t>
+  </si>
+  <si>
+    <t>El sistema sbrira una ventana donde se modificara un listado de producto de ser necesario</t>
+  </si>
+  <si>
+    <t>HU-SV-013 (Referente al CU-018)</t>
   </si>
   <si>
     <t xml:space="preserve">Necesito registrar las salidas de servicios de la empresa </t>
@@ -274,7 +460,7 @@
     <t>El sistema abrirá una ventana donde el usuario digita: numero de telefono del cliente, número de recibo y valor del recibo, con el fin de crear una salida de servicio</t>
   </si>
   <si>
-    <t>HU-SV-007 (Referente al CU-011)</t>
+    <t>HU-SV-014 (Referente al CU-019)</t>
   </si>
   <si>
     <t xml:space="preserve">Necesito consultar las salidas de servicios de la empresa </t>
@@ -295,12 +481,33 @@
     <t>El sistema abrirá una lista donde se muestren todas las salidas de trabajo, con su respectivo cliente, número de prendas, valor del recibo, y un total del número de salidas y porque valor</t>
   </si>
   <si>
-    <t>HU-SV-008 (Referente al CU-012)</t>
+    <t>HU-SV-016 (Referente al CU-020)</t>
   </si>
   <si>
     <t>Como cliente</t>
   </si>
   <si>
+    <t xml:space="preserve">Necesito registrarme para poder agendar un servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con el fin de pedir un servicio </t>
+  </si>
+  <si>
+    <t>Registro de cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso de que el cliente esté interesado y quiera agendar un servicio </t>
+  </si>
+  <si>
+    <t>Cuando se abre una ventana para registrarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema abrirá una ventana donde se piden unos datos para hacer un registro exitoso por parte del cliente  </t>
+  </si>
+  <si>
+    <t>HU-SV-015 (Referente al CU-021)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Necesito consultar los servicios ofrecidos por la empresa </t>
   </si>
   <si>
@@ -319,25 +526,7 @@
     <t>El sistema abrirá una lista con los servicios que ofrece la empresa, por categoría: lavado de muebles, lavado de prendas, lavado de tapetes etc</t>
   </si>
   <si>
-    <t>HU-SV-009 (Referente al CU-013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito registrarme para poder agendar un servicio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con el fin de pedir un servicio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En caso de que el cliente esté interesado y quiera agendar un servicio </t>
-  </si>
-  <si>
-    <t>Cuando se abre una ventana para registrarse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema abrirá una ventana donde se piden unos datos para hacer un registro exitoso por parte del cliente  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU-SV-010 (Referente al CU-014) </t>
+    <t xml:space="preserve">HU-SV-017 (Referente al CU-022) </t>
   </si>
   <si>
     <t>Necesito agendar un servicio</t>
@@ -368,39 +557,6 @@
   </si>
   <si>
     <t>El sistema mostrará una ventana con el mensaje: "Servicio cancelado"</t>
-  </si>
-  <si>
-    <t>HU-SV-011(Referente al CU-015)</t>
-  </si>
-  <si>
-    <t>Necesito consultar los servicios agendados hasta la fecha</t>
-  </si>
-  <si>
-    <t>Con el fin de  consultar, editar o cancelar servicios agendados</t>
-  </si>
-  <si>
-    <t>Listar los servicios agendados previamente</t>
-  </si>
-  <si>
-    <t>En caso de que el cliente quiera simplemente consultar los servicios agendados previamente</t>
-  </si>
-  <si>
-    <t>Cuando se muestre una lista con los servicios agendados</t>
-  </si>
-  <si>
-    <t>El sistema listara los servicios agendados por el cliente de forma remota.</t>
-  </si>
-  <si>
-    <t>en caso de que el cliente quiera editar los servicios agendados</t>
-  </si>
-  <si>
-    <t>El sistema listara los servicios agendados por el cliente de forma remota dando la posibilidad de editarlos</t>
-  </si>
-  <si>
-    <t>En caso de que el cliente quiera cancelar servicios agendados previamente</t>
-  </si>
-  <si>
-    <t>El sistema listara los servicios agendados por el cliente de forma remota dando la posibilidad de cancelarlos</t>
   </si>
 </sst>
 </file>
@@ -429,7 +585,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="26">
     <border/>
     <border>
       <left style="medium">
@@ -694,56 +850,6 @@
         <color rgb="FF000000"/>
       </right>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -751,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -780,30 +886,30 @@
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -813,47 +919,72 @@
     <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -863,24 +994,6 @@
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1183,561 +1296,682 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" ht="42.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="20">
         <v>1.0</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+    <row r="7" ht="43.5" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="24">
         <v>1.0</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>26</v>
+      <c r="F9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" ht="43.5" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="19">
+    <row r="10" ht="63.0" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="32">
         <v>1.0</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>36</v>
+      <c r="F10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>36</v>
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>47</v>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>50</v>
+      <c r="C13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="24">
         <v>1.0</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>53</v>
+      <c r="F13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="19">
+    <row r="14" ht="54.75" customHeight="1">
+      <c r="A14" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" ht="54.75" customHeight="1">
+      <c r="A15" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" ht="54.75" customHeight="1">
+      <c r="A16" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="54.75" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="36">
         <v>2.0</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="F17" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="31" t="s">
+    <row r="19">
+      <c r="A19" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="C19" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="36">
         <v>1.0</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>68</v>
+      <c r="F19" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="20" ht="72.0" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="33">
+    <row r="20" ht="48.75" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" ht="48.75" customHeight="1">
+      <c r="A21" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="36">
         <v>1.0</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>76</v>
+      <c r="F21" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="21" ht="87.0" customHeight="1">
-      <c r="A21" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="35">
+    <row r="22" ht="48.75" customHeight="1">
+      <c r="A22" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="36">
         <v>1.0</v>
       </c>
-      <c r="F21" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>83</v>
+      <c r="F22" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="22" ht="62.25" customHeight="1">
-      <c r="A22" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="24">
+    <row r="23" ht="48.75" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" ht="72.0" customHeight="1">
+      <c r="A24" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="42">
         <v>1.0</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>91</v>
+      <c r="F24" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="23" ht="66.75" customHeight="1">
-      <c r="A23" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="33">
+    <row r="25" ht="87.0" customHeight="1">
+      <c r="A25" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="44">
         <v>1.0</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>97</v>
+      <c r="F25" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="24" ht="56.25" customHeight="1">
-      <c r="A24" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="35">
+    <row r="26" ht="66.75" customHeight="1">
+      <c r="A26" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="42">
         <v>1.0</v>
       </c>
-      <c r="F24" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>104</v>
+      <c r="F26" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="25" ht="57.75" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="24">
+    <row r="27" ht="62.25" customHeight="1">
+      <c r="A27" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" ht="56.25" customHeight="1">
+      <c r="A28" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" ht="57.75" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="24">
         <v>2.0</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>108</v>
+      <c r="F29" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1"/>
     <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
     <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1"/>
     <row r="39" ht="14.25" customHeight="1"/>
     <row r="40" ht="14.25" customHeight="1"/>
     <row r="41" ht="14.25" customHeight="1"/>
@@ -2700,8 +2934,9 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="28">
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
@@ -2713,36 +2948,23 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
